--- a/TestData/Production/Web_POS/Billing/share_invoice_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/share_invoice_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\PRODUCTION\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>SI_01</t>
@@ -494,8 +497,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A16">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="M7">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -503,7 +506,7 @@
     <col min="2" max="2" width="23.57031" customWidth="1"/>
     <col min="3" max="3" width="43.92969" customWidth="1"/>
     <col min="4" max="4" width="20.17969" customWidth="1"/>
-    <col min="5" max="5" width="18.57031" customWidth="1"/>
+    <col min="5" max="5" width="22.28516" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.39063" customWidth="1"/>
     <col min="7" max="7" width="16.77734" customWidth="1"/>
     <col min="8" max="9" width="19.09766" customWidth="1"/>
@@ -587,1502 +590,1571 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>1234</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="4">
         <v>45384</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2">
         <v>7709577438</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X2">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>1234</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>123456</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="4">
         <v>45384</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3">
         <v>7709577438</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X3">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>123456</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="4">
         <v>45384</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T4">
         <v>7709577438</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X4">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1234</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>123456</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="4">
         <v>45384</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T5">
         <v>7709577438</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X5">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1234</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>123456</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="4">
         <v>45384</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T6">
         <v>7709577438</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X6">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1234</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>123456</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="4">
         <v>45384</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T7">
         <v>7709577438</v>
       </c>
       <c r="U7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X7">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1234</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>123456</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="4">
         <v>45384</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T8">
         <v>7709577438</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X8">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>1234</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>123456</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" s="4">
         <v>45384</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T9">
         <v>7709577438</v>
       </c>
       <c r="U9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X9">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1234</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>123456</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="4">
         <v>45384</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T10">
         <v>7709577438</v>
       </c>
       <c r="U10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X10">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>1234</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>123456</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="4">
         <v>45384</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T11">
         <v>7709577438</v>
       </c>
       <c r="U11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X11">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1234</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>123456</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12" s="4">
         <v>45384</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T12">
         <v>7709577438</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X12">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1234</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>123456</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O13" s="4">
         <v>45384</v>
       </c>
       <c r="P13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T13">
         <v>7709577438</v>
       </c>
       <c r="U13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X13">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>1234</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>123456</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O14" s="4">
         <v>45384</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T14">
         <v>7709577438</v>
       </c>
       <c r="U14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X14">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>1234</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>123456</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O15" s="4">
         <v>45384</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T15">
         <v>7709577438</v>
       </c>
       <c r="U15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X15">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>1234</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>123456</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O16" s="4">
         <v>45384</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T16">
         <v>77095774</v>
       </c>
       <c r="U16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V16" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X16">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>1234</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>123456</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" s="4">
         <v>45384</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T17">
         <v>7709577438</v>
       </c>
       <c r="U17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V17" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X17">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>1234</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>123456</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O18" s="4">
         <v>45384</v>
       </c>
       <c r="P18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T18">
         <v>7709577438</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X18">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1234</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>123456</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O19" s="4">
         <v>45384</v>
       </c>
       <c r="P19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T19">
         <v>7709577438</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X19">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>1234</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>123456</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" s="4">
         <v>45384</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T20">
         <v>7709577438</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V20" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X20">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>1234</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>123456</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O21" s="4">
         <v>45384</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T21">
         <v>7709577438</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X21">
+        <v>7896302536</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>1234</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>123456</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O22" s="4">
         <v>45384</v>
       </c>
       <c r="P22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T22">
         <v>7709577438</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W22" s="5"/>
+      <c r="X22">
+        <v>7896302536</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>1234</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>123456</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O23" s="4">
         <v>45384</v>
       </c>
       <c r="P23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T23">
         <v>7709577438</v>
       </c>
       <c r="U23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="X23">
+        <v>7896302536</v>
       </c>
     </row>
   </sheetData>
